--- a/medicine/Mort/Cimetière_communal_du_Vogelenzang/Cimetière_communal_du_Vogelenzang.xlsx
+++ b/medicine/Mort/Cimetière_communal_du_Vogelenzang/Cimetière_communal_du_Vogelenzang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_du_Vogelenzang</t>
+          <t>Cimetière_communal_du_Vogelenzang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière communal du Vogelenzang est le cimetière de la commune d'Anderlecht situé dans le quartier verdoyant du Vogelenzang. Inauguré le 31 octobre 1954, il occupe une superficie de 18,8 hectares.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_du_Vogelenzang</t>
+          <t>Cimetière_communal_du_Vogelenzang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historiquement, le cimetière d'Anderlecht se trouvait au pied de la collégiale Saints-Pierre-et-Guidon. Un nouveau cimetière, d'une superficie de 96,50 ares est inauguré en 1866, place du Repos - actuel Parc Forestier[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, le cimetière d'Anderlecht se trouvait au pied de la collégiale Saints-Pierre-et-Guidon. Un nouveau cimetière, d'une superficie de 96,50 ares est inauguré en 1866, place du Repos - actuel Parc Forestier.
 L'accroissement de la population rend indispensable la construction d'un nouveau cimetière. Les travaux commencent en 1949 et incluent une réflexion urbanistique des environs immédiats du cimetière - dans l'esprit des autres projets urbanistiques de la commune à cette époque.
-Le cimetière présente un caractère culturel, à travers, entre autres, les sépultures conservées de l'ancien cimetière et une sculpture de Maurice De Korte (Les Funérailles). Par ailleurs, le 24 mars 2014, les autorités communales ont signé la charte « Réseau Nature » de l'asbl Natagora, s'engageant ainsi à s'investir dans une gestion écologique du cimetière et à y favoriser la biodiversité - premier cimetière à prendre cet engagement sur le territoire de la Région de Bruxelles-Capitale[3].
+Le cimetière présente un caractère culturel, à travers, entre autres, les sépultures conservées de l'ancien cimetière et une sculpture de Maurice De Korte (Les Funérailles). Par ailleurs, le 24 mars 2014, les autorités communales ont signé la charte « Réseau Nature » de l'asbl Natagora, s'engageant ainsi à s'investir dans une gestion écologique du cimetière et à y favoriser la biodiversité - premier cimetière à prendre cet engagement sur le territoire de la Région de Bruxelles-Capitale.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_du_Vogelenzang</t>
+          <t>Cimetière_communal_du_Vogelenzang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maurice De Korte Les Funérailles, sculpture.</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_du_Vogelenzang</t>
+          <t>Cimetière_communal_du_Vogelenzang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Patrice Braut, unique victime belge des attentats du 11 septembre 2001[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Patrice Braut, unique victime belge des attentats du 11 septembre 2001.
 Raymond Vander Bruggen, échevin (1899-1937).
 Constant Vanden Stock, président du RSC Anderlecht (1914-2008).</t>
         </is>
